--- a/biology/Botanique/Dicotylédones_vraies/Dicotylédones_vraies.xlsx
+++ b/biology/Botanique/Dicotylédones_vraies/Dicotylédones_vraies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dicotyl%C3%A9dones_vraies</t>
+          <t>Dicotylédones_vraies</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dicotylédones vraies ou Eudicotylédones (Eudicotyledoneae) sont un clade de plantes à fleurs important dans les classifications phylogénétiques APG. Ce groupe est aussi appelé parfois Tricolpata ou Tricolpatae en raison de ses grains de pollen qui possèdent trois apertures (colpus). C'est aussi sur ce caractère que se fonde la monophylie du groupe, le groupe des dicotylédones sensu lato étant paraphylétique[1]. Ce clade contient la plupart des Dicotylédones traditionnelles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dicotylédones vraies ou Eudicotylédones (Eudicotyledoneae) sont un clade de plantes à fleurs important dans les classifications phylogénétiques APG. Ce groupe est aussi appelé parfois Tricolpata ou Tricolpatae en raison de ses grains de pollen qui possèdent trois apertures (colpus). C'est aussi sur ce caractère que se fonde la monophylie du groupe, le groupe des dicotylédones sensu lato étant paraphylétique. Ce clade contient la plupart des Dicotylédones traditionnelles.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dicotyl%C3%A9dones_vraies</t>
+          <t>Dicotylédones_vraies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Classification APG III</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique APG III (2009)[2], les dicotylédones vraies sont divisées en 39 ordres (et trois familles). Leur composition et leur emplacement sur l'arbre phylogénétique du vivant sont détaillés par le cladogramme suivant[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG III (2009), les dicotylédones vraies sont divisées en 39 ordres (et trois familles). Leur composition et leur emplacement sur l'arbre phylogénétique du vivant sont détaillés par le cladogramme suivant :
 groupe des Mésangiospermes (Mesangiospermae, en anglais « mesangiosperms »)
 Chloranthales
 clade des Magnoliidées (Magnoliidae, en anglais « magnoliids »)
@@ -578,7 +592,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dicotyl%C3%A9dones_vraies</t>
+          <t>Dicotylédones_vraies</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -596,7 +610,9 @@
           <t>Précédentes classifications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour rappel, voilà la classification phylogénétique APG II (2003) :
 clade des « Dicotylédones vraies » ou Eudicotylédones :
@@ -674,7 +690,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dicotyl%C3%A9dones_vraies</t>
+          <t>Dicotylédones_vraies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -692,7 +708,9 @@
           <t>Classifications plus récentes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis la parution de APG II, Angiosperm Phylogeny Website publie régulièrement une nouvelle version de cette classification. Ces modifications sont partiellement reprises par le National Center for Biotechnology Information (NCBI).
 Voici la version du 18 août 2009 :
